--- a/ejemplos/modelos_arbol_individual-masas_puras/Qpyrenaica_Castilla_y_Leon_IFN_todo.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Qpyrenaica_Castilla_y_Leon_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14.14710605261292</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.9735111111111113</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-5.268483854171327</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.63623649498878</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>26.68926799251408</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26.07028757965266</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>24.95858647603666</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>24.04332125825</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>23.06870771244213</v>
       </c>
     </row>
@@ -495,39 +503,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>127.3239544735163</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.95525625</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.977464829275687</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-6.430208631674424</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.25166535266185</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>52.3098624849281</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>44.93718838662775</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>42.85380135008354</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>41.7490930234132</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>39.77426620781814</v>
       </c>
     </row>
@@ -543,39 +554,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>732.1127382227186</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.81925625</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.159154943091896</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-4.928030660035249</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.66948967784028</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>29.97734114797646</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>29.4620691264188</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>28.12644562779779</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>27.12018130685063</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>26.05586576091538</v>
       </c>
     </row>
@@ -591,39 +605,42 @@
         </is>
       </c>
       <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1628.473377716273</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>18.4946125</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.954929658551372</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-4.659689294505586</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>42.67369323723955</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>28.69942167185715</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>28.29571974099898</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>27.04740155061932</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>26.10934870435698</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24.96141118011397</v>
       </c>
     </row>
@@ -639,39 +656,42 @@
         </is>
       </c>
       <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>127.3239544735163</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.3689</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-4.491052798118124</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42.76606310267529</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>30.95917430602082</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>30.10600709320571</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>28.78892743525914</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>27.70099791825688</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>26.54295791649642</v>
       </c>
     </row>
@@ -687,39 +707,42 @@
         </is>
       </c>
       <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>509.2958178940651</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.213775</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.636619772367582</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-4.325515089781137</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>42.45291619870599</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>22.02022009278982</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>21.68993390516203</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20.63172999112719</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>19.99297006857026</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19.13855730671209</v>
       </c>
     </row>
@@ -735,39 +758,42 @@
         </is>
       </c>
       <c r="C8">
-        <v>43</v>
-      </c>
-      <c r="E8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5.092958178940651</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.0164</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-6.324268607279138</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>42.17720037376404</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>47.06529075159253</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>41.58742637482916</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>39.63894763727901</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>38.52631592598117</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>36.82398672708346</v>
       </c>
     </row>
@@ -783,39 +809,42 @@
         </is>
       </c>
       <c r="C9">
-        <v>43</v>
-      </c>
-      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1909.859317102744</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>14.93253125</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-5.220340974226514</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>40.19642897986273</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>21.27753847109966</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>22.53699790855492</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>21.03113832564734</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>20.25870645164162</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>19.21867410139768</v>
       </c>
     </row>
@@ -831,39 +860,42 @@
         </is>
       </c>
       <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2256.46341539176</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>22.94599236111111</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.86964026381266</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-2.536175878020908</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>42.68477935748966</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>33.91011618973345</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>33.36973493212729</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>31.74193559157306</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>30.22222222222222</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>28.77739523037404</v>
       </c>
     </row>
@@ -879,39 +911,42 @@
         </is>
       </c>
       <c r="C11">
-        <v>43</v>
-      </c>
-      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1687.042396774091</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>11.26390625</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.159154943091895</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-3.352248659434581</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>42.37898841534816</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>28.71369220843682</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>28.37532244717882</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>26.98033166441556</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>25.74816493796028</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>24.4726670282095</v>
       </c>
     </row>
@@ -927,39 +962,42 @@
         </is>
       </c>
       <c r="C12">
-        <v>43</v>
-      </c>
-      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1527.887453682195</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18.7312625</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8.818309886183791</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-3.352148038831189</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>42.36097713072344</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>30.50062151454757</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>29.32104945324336</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>27.89176581920981</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>26.59077968887703</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>25.29597325484002</v>
       </c>
     </row>
@@ -975,39 +1013,42 @@
         </is>
       </c>
       <c r="C13">
-        <v>43</v>
-      </c>
-      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2801.126998417358</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>24.21765</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-3.388520894929775</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>42.35185383108357</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>28.49410627943427</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>27.97546012740182</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>26.60508093319087</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>25.44090043767089</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>24.19390381066091</v>
       </c>
     </row>
@@ -1023,39 +1064,42 @@
         </is>
       </c>
       <c r="C14">
-        <v>43</v>
-      </c>
-      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G14">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H14">
         <v>0.4096</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-3.267109686852794</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>42.35220095521243</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>29.92482316091317</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>28.61022374236925</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>27.18913673134715</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>25.91527989883465</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>24.62107212941396</v>
       </c>
     </row>
@@ -1071,39 +1115,42 @@
         </is>
       </c>
       <c r="C15">
-        <v>43</v>
-      </c>
-      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="F15">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>381.9718634205488</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.7953125</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.818309886183791</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-3.376326157144698</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>42.34288867471495</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>28.49410627943427</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>28.59880215618831</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>27.19968944046143</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>26.01097042863553</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>24.74181021583533</v>
       </c>
     </row>
@@ -1119,39 +1166,42 @@
         </is>
       </c>
       <c r="C16">
-        <v>43</v>
-      </c>
-      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="F16">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1687.042396774091</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>17.44358125</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-3.327768771529119</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>42.34303776235048</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>29.30257102286831</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>30.15783112033466</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>28.67360975793058</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>27.34584455224543</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>26.01272928714512</v>
       </c>
     </row>
@@ -1167,39 +1217,42 @@
         </is>
       </c>
       <c r="C17">
-        <v>43</v>
-      </c>
-      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2196.338214668156</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24.77898125</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9.614084601643267</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-3.097214552763204</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>42.40650565324217</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>27.39759170815788</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>24.97057155826707</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>23.67196145964041</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>22.57297305539718</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>21.53358012267548</v>
       </c>
     </row>
@@ -1215,39 +1268,42 @@
         </is>
       </c>
       <c r="C18">
-        <v>43</v>
-      </c>
-      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1382.879616642913</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>19.59207777777778</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>10.13661977236758</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-3.133593521746648</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>42.37044590658746</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>30.41916018304989</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>28.36710364583663</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>26.88777469164311</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>25.6192445692056</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>24.37913304890357</v>
       </c>
     </row>
@@ -1263,39 +1319,42 @@
         </is>
       </c>
       <c r="C19">
-        <v>43</v>
-      </c>
-      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>488.0751588151457</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7.91795625</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13.26181569834964</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-3.072858854234815</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>42.36149477009071</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>32.88878164763042</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>30.40680013135691</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>28.73405283598051</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>27.48757169349758</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>26.03921569605639</v>
       </c>
     </row>
@@ -1311,39 +1370,42 @@
         </is>
       </c>
       <c r="C20">
-        <v>43</v>
-      </c>
-      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="F20">
         <v>25</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2228.169203286535</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>16.28395</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.295774715459478</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-3.424580320964078</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>42.2976908062723</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>25.82241984904968</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>25.6310679415122</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>24.33994325715453</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>23.26147046799539</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>22.11722269078144</v>
       </c>
     </row>
@@ -1359,39 +1421,42 @@
         </is>
       </c>
       <c r="C21">
-        <v>43</v>
-      </c>
-      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="F21">
         <v>15</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>127.3239544735163</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.855625</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-3.169616679833044</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>42.21729747126192</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>49.93965107294292</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>42.83209720031931</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>40.33000411565929</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>38.53977644239387</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>36.58175860509873</v>
       </c>
     </row>
@@ -1407,42 +1472,45 @@
         </is>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D22">
+        <v>43</v>
+      </c>
+      <c r="E22">
         <v>2003</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>778.0908328937105</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7.615821527777777</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.03239448782706</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-6.430208631674424</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>42.25166535266185</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>52.3098624849281</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>44.93718838662775</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>42.85380135008354</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>41.7490930234132</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>39.77426620781814</v>
       </c>
     </row>
@@ -1458,42 +1526,45 @@
         </is>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
         <v>2002</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>127.3239544735163</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.7395999999999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-5.545008584846177</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>42.83752783009265</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>42.75910045503677</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>38.43279108559544</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>36.72311931752404</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>35.48511802758211</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>34.16141960982855</v>
       </c>
     </row>
@@ -1509,42 +1580,45 @@
         </is>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D24">
+        <v>43</v>
+      </c>
+      <c r="E24">
         <v>2002</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>350.1408748021697</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.070575</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9.318309886183791</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-6.128759124786908</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>42.74876792455073</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>59.226018122103</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>60.66696320966933</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>58.10746130837578</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>56.07667761262762</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>54.03906753680635</v>
       </c>
     </row>
@@ -1560,42 +1634,45 @@
         </is>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25">
         <v>2003</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>95.4929658551372</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.326875</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>8.333333333333332</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-5.56351043812276</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>42.69304328690773</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>27.47532320216612</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>26.38720349940857</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>25.21989908656879</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>24.42045646775492</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>23.4759824594265</v>
       </c>
     </row>
@@ -1611,42 +1688,45 @@
         </is>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D26">
+        <v>43</v>
+      </c>
+      <c r="E26">
         <v>2002</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>14.14710605261292</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.5980444444444445</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>10.5</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-6.606894143243784</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>42.70573715144106</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>49.08362029487063</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>48.09248544281154</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>46.02117987878627</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>44.88022273690536</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>43.220245990456</v>
       </c>
     </row>
@@ -1662,42 +1742,45 @@
         </is>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
         <v>2003</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>381.9718634205488</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.818125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-5.588648497848665</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>42.71048663345282</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>32.91431794162531</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>29.26498299483994</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>27.98743287226742</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>26.89880318170625</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>25.95523730216944</v>
       </c>
     </row>
@@ -1713,42 +1796,45 @@
         </is>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
         <v>2003</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>636.6197723675814</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3.99505</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-5.446502342914204</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>42.82166740491907</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>36.81733673426375</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>36.91934491782345</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>35.3584158040243</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>34.01281297605195</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>32.74817933062923</v>
       </c>
     </row>
@@ -1764,42 +1850,45 @@
         </is>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D29">
+        <v>43</v>
+      </c>
+      <c r="E29">
         <v>2003</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>15</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>127.3239544735163</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.664225</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6.5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-4.539922827112755</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>42.76541625278117</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>32.80764213976241</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>32.71411338727393</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>31.16883113117786</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>30.00577922372753</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>28.92938495085651</v>
       </c>
     </row>
@@ -1815,42 +1904,45 @@
         </is>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="E30">
         <v>2002</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>30</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>79.36526495515848</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>4.92396025</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12.07540106951872</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-6.518859461115665</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>42.15456099203362</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>49.23386344356264</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>46.54838720025857</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>44.45320203113656</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>43.25366210653685</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>41.20660208402927</v>
       </c>
     </row>
@@ -1866,42 +1958,45 @@
         </is>
       </c>
       <c r="C31">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D31">
+        <v>43</v>
+      </c>
+      <c r="E31">
         <v>2002</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>259.7408671259732</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3.382493999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3.932901445209956</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-6.324268607279138</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>42.17720037376404</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>47.06529075159253</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>41.58742637482916</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>39.63894763727901</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>38.52631592598117</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>36.82398672708346</v>
       </c>
     </row>
@@ -1917,42 +2012,45 @@
         </is>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
         <v>2002</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>350.1408748021697</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.86654375</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6.659154943091895</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-4.985262905738002</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>40.19169271922853</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>13.72010690347707</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>13.36728188253506</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>12.62378531337408</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>12.14823733451637</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>11.43362831858407</v>
       </c>
     </row>
@@ -1968,42 +2066,45 @@
         </is>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
         <v>2002</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>25</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>604.7887837492023</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>8.339181249999999</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9.459154943091896</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-5.577926514773623</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>40.3331359535954</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>36.99508276362516</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>29.36615843784723</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>27.56123542790872</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>26.70813908393725</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>25.05405396324296</v>
       </c>
     </row>
@@ -2019,42 +2120,45 @@
         </is>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D34">
+        <v>43</v>
+      </c>
+      <c r="E34">
         <v>2003</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>30</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1513.740347629582</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>32.75246388888889</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>14.60832556026236</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-3.133593521746648</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>42.37044590658746</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>30.41916018304989</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>28.36710364583663</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>26.88777469164311</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>25.6192445692056</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>24.37913304890357</v>
       </c>
     </row>
@@ -2070,42 +2174,45 @@
         </is>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
         <v>2003</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>880.6573517751542</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>21.39965347222222</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>19.14910811276112</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-3.072858854234815</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>42.36149477009071</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>32.88878164763042</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>30.40680013135691</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>28.73405283598051</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>27.48757169349758</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>26.03921569605639</v>
       </c>
     </row>
@@ -2121,42 +2228,45 @@
         </is>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D36">
+        <v>43</v>
+      </c>
+      <c r="E36">
         <v>2003</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2811.737327956817</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>41.51735</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>14.59098593171027</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-3.376218794555309</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>42.32487732400384</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>26.99827547031336</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>27.76545168713827</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>26.34315418766874</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>25.184907072434</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>23.93388409218095</v>
       </c>
     </row>
@@ -2172,42 +2282,45 @@
         </is>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37">
         <v>2003</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>608.3255602623556</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>22.89881111111111</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>17.54272306776218</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-3.30336010087664</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>42.31608734449424</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>30.73335997428498</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>30.85363363757005</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>29.33227347146205</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>27.96206696930844</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>26.59103800572572</v>
       </c>
     </row>
@@ -2223,42 +2336,45 @@
         </is>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
         <v>2003</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>616.9552949544494</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>9.395195138888889</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>12.0278874536822</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-3.291018477851191</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>42.27108971736244</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>40.22854684526401</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>36.11301369264072</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>34.22176148258922</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>32.70967731862954</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>30.87332816648347</v>
       </c>
     </row>
@@ -2274,42 +2390,45 @@
         </is>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D39">
+        <v>43</v>
+      </c>
+      <c r="E39">
         <v>2003</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>15</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2005.352282957881</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>22.46033125</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>12.38197186342055</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-3.169616679833044</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>42.21729747126192</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>49.93965107294292</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>42.83209720031931</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>40.33000411565929</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>38.53977644239387</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>36.58175860509873</v>
       </c>
     </row>
@@ -2325,42 +2444,45 @@
         </is>
       </c>
       <c r="C40">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D40">
+        <v>43</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>20</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>445.6338406573069</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>4.445212499999999</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>6.186479023289237</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-6.469422368585771</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>42.51176489197775</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>46.44262471736581</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>44.61893765573014</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>42.78438018341114</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>41.56920812429161</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>39.92695404880456</v>
       </c>
     </row>
@@ -2376,42 +2498,45 @@
         </is>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D41">
+        <v>43</v>
+      </c>
+      <c r="E41">
         <v>2019</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>25</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1273.239544735163</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>9.36125</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>6.400000095367429</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-5.319496333289019</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>42.66047282258869</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>27.22841844314094</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>27.26027390219614</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>25.97615499125049</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>25.07397264641535</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>24.03025396013486</v>
       </c>
     </row>
@@ -2427,42 +2552,45 @@
         </is>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D42">
+        <v>43</v>
+      </c>
+      <c r="E42">
         <v>2005</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>25</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>254.6479089470325</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3.61061875</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>6.759436727350874</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-5.123244283605478</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>42.62830592706633</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>28.20258965387557</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>27.26333905471866</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>26.00786059404533</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>25.14495416900303</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>24.13456318912822</v>
       </c>
     </row>
@@ -2478,42 +2606,45 @@
         </is>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43">
         <v>2019</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>35</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>986.7606471697511</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>14.0853875</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>10.55014080549291</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-6.47123219400236</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>42.4574149153469</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>60.36531582235063</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>47.71314745568008</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>45.60514532089529</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>44.3867022924972</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>42.49387832472434</v>
       </c>
     </row>
@@ -2529,42 +2660,45 @@
         </is>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
         <v>2019</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>50</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>700.2817496043394</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5.132699999999999</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>8.123098661336508</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-5.992432168413949</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>42.44662638811097</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>36.53253331326125</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>35.70100401477026</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>34.19825058465763</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>33.21428570544765</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>31.84493396418569</v>
       </c>
     </row>
@@ -2580,42 +2714,45 @@
         </is>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
         <v>2019</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>30</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>45.97809467099199</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1.417</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.415384512681229</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>-5.091721642074405</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>42.45032553448497</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>23.12783456595935</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>22.61027399027277</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>21.6554173998716</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>20.88772842919046</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>20.04458935361195</v>
       </c>
     </row>
@@ -2631,42 +2768,45 @@
         </is>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
         <v>2019</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>30</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>127.3239544735163</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1.050625</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-5.959989048234683</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>42.27645218986574</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>33.2314919257183</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>30.93140796553356</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>29.5227994196947</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>28.6802908718383</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>27.44027306545338</v>
       </c>
     </row>
@@ -2682,42 +2822,45 @@
         </is>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D47">
+        <v>43</v>
+      </c>
+      <c r="E47">
         <v>2019</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>30</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1305.070533353542</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>10.92003125</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>8.427324023782795</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-6.340423164057921</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>42.96807113698853</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>70.10863721625168</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>66.52877692760134</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>63.68966246693608</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>61.60899681000433</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>59.69257046228949</v>
       </c>
     </row>
@@ -2733,42 +2876,45 @@
         </is>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D48">
+        <v>43</v>
+      </c>
+      <c r="E48">
         <v>2019</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>50</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1273.239544735163</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>11.75741875</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>7.645633680278843</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-6.218764391004431</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>42.94716924296206</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>63.76295963120929</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>57.42710107518876</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>55.1399118200731</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>53.32232117113467</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>51.51243360813922</v>
       </c>
     </row>
@@ -2784,42 +2930,45 @@
         </is>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D49">
+        <v>43</v>
+      </c>
+      <c r="E49">
         <v>2019</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>25</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>127.3239544735163</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.6480250000000001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>3.90000009536743</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-6.02679038473375</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>42.86129978704691</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>61.46530916064566</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>63.90596737407217</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>61.23588043707026</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>58.98569575747997</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>56.98653547853972</v>
       </c>
     </row>
@@ -2835,42 +2984,45 @@
         </is>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D50">
+        <v>43</v>
+      </c>
+      <c r="E50">
         <v>2019</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>30</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>923.0986699329929</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>7.512524999999999</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>7.599999904632569</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-6.101404857005195</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>42.83620567220563</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>65.01975168661014</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>53.89206351585769</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>51.5104924087174</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>49.87583967455033</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>48.00964037022634</v>
       </c>
     </row>
@@ -2886,42 +3038,45 @@
         </is>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D51">
+        <v>43</v>
+      </c>
+      <c r="E51">
         <v>2019</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>30</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1032.738741840743</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>8.544449999999999</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.952707366700151</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-5.709090249731566</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>42.92195724253117</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>57.46388668007967</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>58.67148693516117</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>56.05490364129832</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>54.10795622494413</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>52.09143354045283</v>
       </c>
     </row>
@@ -2937,42 +3092,45 @@
         </is>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D52">
+        <v>43</v>
+      </c>
+      <c r="E52">
         <v>2019</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>636.6197723675814</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5.808149999999999</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>9.041408928990029</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-6.419934791580912</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>42.82581960186446</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>62.48566054222952</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>53.3388056772367</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>51.26964929075746</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>49.61264826079194</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>47.90625008923235</v>
       </c>
     </row>
@@ -2988,42 +3146,45 @@
         </is>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D53">
+        <v>43</v>
+      </c>
+      <c r="E53">
         <v>2019</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>50</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>254.6479089470325</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3.7299875</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>9.486760465031365</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-6.395877363196574</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>42.81627202756433</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>67.60004341166082</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>58.52280048168646</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>56.10586026250789</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>54.33216705359069</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>52.46647683027776</v>
       </c>
     </row>
@@ -3039,42 +3200,45 @@
         </is>
       </c>
       <c r="C54">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D54">
+        <v>43</v>
+      </c>
+      <c r="E54">
         <v>2019</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>14.14710605261292</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.6293777777777778</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>6.19999980926514</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-6.483238640342811</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>42.77319946821976</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>59.86874041334818</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>58.95895047625917</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>56.4530180362771</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>54.80276532055196</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>52.82988549166953</v>
       </c>
     </row>
@@ -3090,42 +3254,45 @@
         </is>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D55">
+        <v>43</v>
+      </c>
+      <c r="E55">
         <v>2019</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>20</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1293.611377450925</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>20.06449</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>10.41477165468126</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>-6.49871296121772</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>42.69250248645167</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>46.60090087847144</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>42.91597105149475</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>41.15910330475257</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>39.97134693697492</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>38.59189811045498</v>
       </c>
     </row>
@@ -3141,42 +3308,45 @@
         </is>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D56">
+        <v>43</v>
+      </c>
+      <c r="E56">
         <v>2019</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>25</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>604.7887837492023</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>5.062456249999999</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>8.304788775152716</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-5.94954147715901</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>42.82595951030653</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>50.3099907910539</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>50.65326634493353</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>48.36445712329624</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>46.89877234183646</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>45.09235341856152</v>
       </c>
     </row>
@@ -3192,42 +3362,45 @@
         </is>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D57">
+        <v>43</v>
+      </c>
+      <c r="E57">
         <v>2019</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>25</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>509.2958178940651</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2.959625</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6.900000095367429</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-5.912055734832172</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>42.80891140696709</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>49.6776793381555</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>47.70400792976562</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>45.53474310948762</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>44.03321477579019</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>42.57611244263673</v>
       </c>
     </row>
@@ -3243,42 +3416,45 @@
         </is>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
         <v>2019</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>25</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>127.3239544735163</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1.5376</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>8.30000019073486</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-5.956201711041629</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>42.70873255634113</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>46.74701548612085</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>45.69576643068887</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>43.70561389623533</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>42.24037371481039</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>40.71387431160989</v>
       </c>
     </row>
@@ -3294,42 +3470,45 @@
         </is>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D59">
+        <v>43</v>
+      </c>
+      <c r="E59">
         <v>2019</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>30</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>286.4788975654116</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>2.4921</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>6</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-5.161307316533211</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>42.67247394029297</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>27.97101879741564</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>26.22456677549226</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>25.11164433398349</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>24.15640846330911</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>23.22857146812945</v>
       </c>
     </row>
@@ -3345,42 +3524,45 @@
         </is>
       </c>
       <c r="C60">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D60">
+        <v>43</v>
+      </c>
+      <c r="E60">
         <v>2019</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>40</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>254.6479089470325</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1.355125</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>5.5</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>-5.768456951123755</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>42.605374422632</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>33.31305553665732</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>31.66072455595712</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>30.22614448212994</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>29.25879170659688</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>28.10464492711618</v>
       </c>
     </row>
@@ -3396,42 +3578,45 @@
         </is>
       </c>
       <c r="C61">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D61">
+        <v>43</v>
+      </c>
+      <c r="E61">
         <v>2005</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>35</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1050.422624406509</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>6.690700000000001</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>6.69999980926514</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-5.099422670038702</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>42.64661082021319</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>28.20258965387557</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>27.46543774181088</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>26.20067664819205</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>25.28642475913293</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>24.31372558899396</v>
       </c>
     </row>
@@ -3447,42 +3632,45 @@
         </is>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D62">
+        <v>43</v>
+      </c>
+      <c r="E62">
         <v>2019</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>20</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>555.273912565057</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>6.883211111111111</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>8.702222337221663</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>-6.520552919415007</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>42.44984899568313</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>57.87944356219662</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>57.85484903623841</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>55.19548413688634</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>53.56265365269827</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>51.33870943681251</v>
       </c>
     </row>
@@ -3498,42 +3686,45 @@
         </is>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D63">
+        <v>43</v>
+      </c>
+      <c r="E63">
         <v>2019</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>20</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2171.580779076083</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>18.19592013888889</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>9.134053344883631</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-5.620363593034075</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>42.85198977291594</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>44.81484019043633</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>46.69751812207047</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>44.78681761266302</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>43.14279958689932</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>41.61020311958778</v>
       </c>
     </row>
@@ -3549,42 +3740,45 @@
         </is>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D64">
+        <v>43</v>
+      </c>
+      <c r="E64">
         <v>2019</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>30</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>456.2441701967666</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>9.624313888888889</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>14.00482024098626</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-6.554385578270199</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>42.82876989584562</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>54.23104890667337</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>51.94207491433987</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>49.85190966405685</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>48.39487271499066</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>46.83812403954851</v>
       </c>
     </row>
@@ -3600,42 +3794,45 @@
         </is>
       </c>
       <c r="C65">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D65">
+        <v>43</v>
+      </c>
+      <c r="E65">
         <v>2019</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>50</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>364.2879808547826</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>4.32840625</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>5.5</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-5.888589879980342</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>42.82706448447031</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>49.6776793381555</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>46.8029437949167</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>44.7115385533619</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>43.18584094714872</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>41.74723365605947</v>
       </c>
     </row>
@@ -3651,42 +3848,45 @@
         </is>
       </c>
       <c r="C66">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D66">
+        <v>43</v>
+      </c>
+      <c r="E66">
         <v>2019</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>22</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>127.3239544735163</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.5928999999999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>6.19999980926514</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-5.788752807052092</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>42.81197423372693</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>46.55215177900491</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>46.06611578757504</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>44.0558590699326</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>42.49305261045507</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>40.97904831871629</v>
       </c>
     </row>
@@ -3702,42 +3902,45 @@
         </is>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D67">
+        <v>43</v>
+      </c>
+      <c r="E67">
         <v>2019</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>30</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2419.155134996809</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>20.4513625</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>7.718309829769238</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-5.849118743715533</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>42.79333385680173</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>45.98337447296092</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>44.12621324125679</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>42.20459964026638</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>40.80933866396272</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>39.33141209192338</v>
       </c>
     </row>
@@ -3753,42 +3956,45 @@
         </is>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68">
         <v>2019</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>30</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>633.0829958544281</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>8.357751388888889</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>8.430798379881622</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>-5.198208365792699</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>42.68077620471763</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>27.10898554477501</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>26.18099894845857</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>25.02850830877032</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>24.12125584666795</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>23.1582696008271</v>
       </c>
     </row>
@@ -3804,42 +4010,45 @@
         </is>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D69">
+        <v>43</v>
+      </c>
+      <c r="E69">
         <v>2019</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>50</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1252.018885656243</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>32.90988958333333</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>16.20735543754798</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-4.459910931020973</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>42.94470581358572</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>38.83618855375943</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>39.0616568995635</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>37.3246595289751</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>35.9545181287822</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>34.63625638846678</v>
       </c>
     </row>
@@ -3855,42 +4064,45 @@
         </is>
       </c>
       <c r="C70">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D70">
+        <v>43</v>
+      </c>
+      <c r="E70">
         <v>2019</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>20</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>127.3239544735163</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>2.81180625</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>11.63690165199399</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>-4.297966790195741</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>42.82058945205355</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>30.33905487346158</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>30.72632186746998</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>29.38496594547415</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>28.32187320944625</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>27.23872393013744</v>
       </c>
     </row>
@@ -3906,42 +4118,45 @@
         </is>
       </c>
       <c r="C71">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D71">
+        <v>43</v>
+      </c>
+      <c r="E71">
         <v>2019</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>60</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>443.6532458099412</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>7.346221555555555</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>9.12829283671708</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-4.490601864213827</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>42.69216496299311</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>28.28840267486959</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>27.77927321103827</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>26.50112862835494</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>25.57993720511001</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>24.48801739421439</v>
       </c>
     </row>
@@ -3957,42 +4172,45 @@
         </is>
       </c>
       <c r="C72">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D72">
+        <v>43</v>
+      </c>
+      <c r="E72">
         <v>2019</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>20</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>381.9718634205488</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>3.25741875</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>9.568450804505781</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-4.529865803921614</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>42.79971568419975</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>33.64483369224892</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>31.37440756041199</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>29.94197278477408</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>28.86363627484643</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>27.79749663655636</v>
       </c>
     </row>
@@ -4008,42 +4226,45 @@
         </is>
       </c>
       <c r="C73">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D73">
+        <v>43</v>
+      </c>
+      <c r="E73">
         <v>2019</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>80</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>78.94085177358009</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>3.6331615</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>12.95322593565913</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-4.542181913252713</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>42.7998115834516</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>37.57344499273163</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>32.26448921970174</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>30.84243372620658</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>29.70206255186298</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>28.65536727144334</v>
       </c>
     </row>
@@ -4059,42 +4280,45 @@
         </is>
       </c>
       <c r="C74">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D74">
+        <v>43</v>
+      </c>
+      <c r="E74">
         <v>2019</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>12</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>42.44131815783876</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>2.096294444444445</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>8.899999936421711</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-6.121134067740473</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>42.14334584431744</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>35.56906919503549</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>33.98230092239246</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>32.37752162843186</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>31.56222390463295</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>30.08868004740737</v>
       </c>
     </row>
@@ -4110,42 +4334,45 @@
         </is>
       </c>
       <c r="C75">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D75">
+        <v>43</v>
+      </c>
+      <c r="E75">
         <v>2019</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>20</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>95.4929658551372</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1.4499125</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>6.199999968210856</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-6.229545885044583</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>41.88484634832712</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>40.09074420590287</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>39.05132171759714</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>37.15747579846326</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>36.30027807682674</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>34.45436325104685</v>
       </c>
     </row>
@@ -4161,42 +4388,45 @@
         </is>
       </c>
       <c r="C76">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D76">
+        <v>43</v>
+      </c>
+      <c r="E76">
         <v>2018</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>80</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>215.0360119997164</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>30.23785666666667</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>26.456664868289</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>-2.549477770080402</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>42.6564026733264</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>32.61212416136648</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>32.35431231984868</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>30.79365101284977</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>29.34169281834839</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>27.96032466486031</v>
       </c>
     </row>
@@ -4212,42 +4442,45 @@
         </is>
       </c>
       <c r="C77">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D77">
+        <v>43</v>
+      </c>
+      <c r="E77">
         <v>2018</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>25</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>286.4788975654116</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>3.6576125</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>9.390985862400997</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>-3.365513669030953</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>42.37707368916389</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>28.71369220843682</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>27.81441249907997</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>26.44145884815601</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>25.31759410086178</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>24.01319395303601</v>
       </c>
     </row>
@@ -4263,42 +4496,45 @@
         </is>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D78">
+        <v>43</v>
+      </c>
+      <c r="E78">
         <v>2018</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>15</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>47.10986315520102</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7.1084</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>8.87297282347809</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>-3.462266658030619</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>42.31370164355024</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>24.78328050804529</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>24.45421522205074</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>23.25892842082911</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>22.26983847476188</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>21.11999985005697</v>
       </c>
     </row>
@@ -4314,42 +4550,45 @@
         </is>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D79">
+        <v>43</v>
+      </c>
+      <c r="E79">
         <v>2018</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>25</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>282.9421210522584</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>3.573647222222222</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>6.295148902576312</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>-3.425975613401968</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>42.3049263735021</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>25.82241984904968</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>25.18747584698063</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>23.9142696639317</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>22.89488170150188</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>21.72023706626478</v>
       </c>
     </row>
@@ -4365,42 +4604,45 @@
         </is>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D80">
+        <v>43</v>
+      </c>
+      <c r="E80">
         <v>2018</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>35</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>1591.549430918953</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>13.39115625</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>7.123098661336508</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-3.255483915873563</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>42.22452331471763</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>37.88616914569972</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>35.02564108586288</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>33.108583355317</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>31.64888261611723</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>29.99411426005113</v>
       </c>
     </row>
@@ -4416,42 +4658,45 @@
         </is>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D81">
+        <v>43</v>
+      </c>
+      <c r="E81">
         <v>2018</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>25</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>2578.310078088704</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>18.4400375</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>7.69999980926514</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-3.38893347390157</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>42.20588420658191</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>29.70222711926532</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>33.02935665229739</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>31.35483858062577</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>30.02356638416837</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>28.37325164362683</v>
       </c>
     </row>
@@ -4467,42 +4712,45 @@
         </is>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D82">
+        <v>43</v>
+      </c>
+      <c r="E82">
         <v>2018</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>99</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>824.3518696857548</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>30.36317447222222</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>12.72206820064191</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-3.4372611524023</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>42.1876980468024</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>28.31456195061206</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>29.9209405699303</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>28.24916477738537</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>27.07527300762126</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>25.76397968242683</v>
       </c>
     </row>
@@ -4518,42 +4766,45 @@
         </is>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D83">
+        <v>43</v>
+      </c>
+      <c r="E83">
         <v>2018</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>20</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>1195.713403566844</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>28.25313591666666</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>14.90937588423885</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-3.389009971093781</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>42.17885672157674</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>29.70222711926532</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>26.56633656154461</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>25.07393880982561</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>24.00449534013079</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>22.78814505966425</v>
       </c>
     </row>
@@ -4569,42 +4820,45 @@
         </is>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D84">
+        <v>43</v>
+      </c>
+      <c r="E84">
         <v>2018</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>40</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>1815.922532913394</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>21.36280486111111</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>8.916349280129657</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-3.267536749170104</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>42.14328785497193</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>31.96702540325029</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>28.43578823668954</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>26.90794633603841</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>25.65025853923629</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>24.35887846464382</v>
       </c>
     </row>
@@ -4620,42 +4874,45 @@
         </is>
       </c>
       <c r="C85">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D85">
+        <v>43</v>
+      </c>
+      <c r="E85">
         <v>2018</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>45</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>1524.350677169042</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>17.42121319444444</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>8.081971763754872</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-3.243526984497621</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>42.14310716758861</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>32.70512210029654</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>34.76635509969292</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>32.87535987957312</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>31.38572287965009</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>29.75438607121854</v>
       </c>
     </row>
@@ -4671,42 +4928,45 @@
         </is>
       </c>
       <c r="C86">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D86">
+        <v>43</v>
+      </c>
+      <c r="E86">
         <v>2018</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>99</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>137.7928129524498</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>66.12586044444444</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>10.64291866338893</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-3.134218552317403</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>42.09856229415988</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>29.48072375748018</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>27.54901958302457</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>26.03325417888412</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>24.81802443235255</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>23.4772813585547</v>
       </c>
     </row>
@@ -4722,42 +4982,45 @@
         </is>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D87">
+        <v>43</v>
+      </c>
+      <c r="E87">
         <v>2018</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>99</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>56.02253996834716</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>14.76348</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>12.90909082239324</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>-3.26698865501623</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>41.9808877142323</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>20.69037841817443</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>19.82648054149561</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>18.80974176467525</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>17.88554102819488</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>17.01149421724708</v>
       </c>
     </row>
@@ -4773,42 +5036,45 @@
         </is>
       </c>
       <c r="C88">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D88">
+        <v>43</v>
+      </c>
+      <c r="E88">
         <v>2018</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>99</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>151.6569768840105</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>7.143860944444445</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>9.330879542180536</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-3.266819675920589</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>41.97221492003848</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>20.69037841817443</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>19.87521278966568</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>18.8546254899108</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>17.92709077311313</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>17.05009594363338</v>
       </c>
     </row>
@@ -4824,42 +5090,45 @@
         </is>
       </c>
       <c r="C89">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D89">
+        <v>43</v>
+      </c>
+      <c r="E89">
         <v>2018</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>99</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>20.3718327157626</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>19.828632</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>16.5</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>-3.206668600531696</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>41.90882522312992</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>23.25520433282153</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>21.49323014062901</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>20.47244103187121</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>19.47838769904569</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>18.40241961753912</v>
       </c>
     </row>
@@ -4875,42 +5144,45 @@
         </is>
       </c>
       <c r="C90">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D90">
+        <v>43</v>
+      </c>
+      <c r="E90">
         <v>2018</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>25</v>
       </c>
-      <c r="F90">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G90">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H90">
         <v>0.3969</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>5.000000000000001</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>-3.122611110915672</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>41.99890235155988</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>24.21525292173897</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>23.39384375608172</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>22.1644359660393</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>21.0635924755173</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>19.98186108117892</v>
       </c>
     </row>
@@ -4926,42 +5198,45 @@
         </is>
       </c>
       <c r="C91">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D91">
+        <v>43</v>
+      </c>
+      <c r="E91">
         <v>2018</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>70</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>273.8879731785861</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>16.43327266666666</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>19.47226923683776</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>-3.12216720155264</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>41.98143939286029</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>24.21525292173897</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>22.92214156631431</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>21.76012157677974</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>20.67665013288294</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>19.61038969345868</v>
       </c>
     </row>
@@ -4977,42 +5252,45 @@
         </is>
       </c>
       <c r="C92">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D92">
+        <v>43</v>
+      </c>
+      <c r="E92">
         <v>2018</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>60</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>114.7330300866908</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>3.1080285</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>11.90233878174616</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>-3.316736473720198</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>42.30483883942887</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>30.73335997428498</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>28.41091490874164</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>26.98889102999931</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>25.79567038356561</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>24.54342985916687</v>
       </c>
     </row>
@@ -5028,42 +5306,45 @@
         </is>
       </c>
       <c r="C93">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D93">
+        <v>43</v>
+      </c>
+      <c r="E93">
         <v>2018</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>99</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>424.6961236994398</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>36.47489277777778</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>13.84049817100051</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>-3.280702012216408</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>42.38631849277162</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>26.65672427671105</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>26.7185675772303</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>25.39466219305743</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>24.2527249703566</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>23.07608886210378</v>
       </c>
     </row>
@@ -5079,42 +5360,45 @@
         </is>
       </c>
       <c r="C94">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D94">
+        <v>43</v>
+      </c>
+      <c r="E94">
         <v>2018</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>50</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>1000.907753222364</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>17.40592361111111</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>12.18197168987869</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>-3.158647337870596</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>42.15239718122692</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>29.36295110852411</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>28.43069395811313</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>26.90349321797946</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>25.67313221005271</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>24.31916094693859</v>
       </c>
     </row>
@@ -5130,42 +5414,45 @@
         </is>
       </c>
       <c r="C95">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D95">
+        <v>43</v>
+      </c>
+      <c r="E95">
         <v>2018</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>15</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>259.7408671259732</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>4.696325</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>5.622231001151598</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>-3.218574674965052</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>41.98117923536863</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>21.03944709882569</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>20.23110445583542</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>19.28295628454808</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>18.21371041556024</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>17.40650120784569</v>
       </c>
     </row>
@@ -5181,42 +5468,45 @@
         </is>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D96">
+        <v>43</v>
+      </c>
+      <c r="E96">
         <v>2018</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>7</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>609.8817419281429</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>14.23937594444445</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>19.55165433712669</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>-3.134061782444359</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>41.97230260313234</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>23.37012120701446</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>21.62371621535801</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>20.51089402448541</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>19.52111139842174</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>18.49117189250403</v>
       </c>
     </row>
